--- a/backup/UI_001/XL/Page_1.xlsx
+++ b/backup/UI_001/XL/Page_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sketch_1\Git\UI_1\UI_001\XL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sketch_1\Git\UI_1\backup\UI_001\XL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA71D9B0-8EE8-497D-82DB-5C03F9ACA0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9E4238-59B1-477C-BC29-C3DC40663F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5EC3F4DB-EF81-46FB-9431-99FD1A794678}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="54">
   <si>
     <t>S.No</t>
   </si>
@@ -90,9 +90,6 @@
     <t>LoginButton</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>UserRoleSelection</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>AddButton</t>
   </si>
   <si>
-    <t>C:\Users\Lokesh\Desktop\STUB Data.txt</t>
-  </si>
-  <si>
     <t>JumbTab</t>
   </si>
   <si>
@@ -177,9 +171,6 @@
     <t>Drop</t>
   </si>
   <si>
-    <t>Submit</t>
-  </si>
-  <si>
     <t>ScrollDownElement</t>
   </si>
   <si>
@@ -187,6 +178,24 @@
   </si>
   <si>
     <t>Quit</t>
+  </si>
+  <si>
+    <t>D:\Sketch_1\Git\UI_1\backup\UI_001\XL\Page_1.xlsx</t>
+  </si>
+  <si>
+    <t>https://demo.guru99.com/test/delete_customer.php</t>
+  </si>
+  <si>
+    <t>CustomerID</t>
+  </si>
+  <si>
+    <t>SubmitUploadedFile</t>
+  </si>
+  <si>
+    <t>SubmitCustomerForm</t>
+  </si>
+  <si>
+    <t>AlertAccept</t>
   </si>
 </sst>
 </file>
@@ -618,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235CE346-5F7A-43F6-A669-24F42AEB3C42}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -659,10 +668,10 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>5</v>
@@ -680,7 +689,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>5</v>
@@ -698,7 +707,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
@@ -716,7 +725,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>5</v>
@@ -803,13 +812,13 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>6</v>
@@ -827,7 +836,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>6</v>
@@ -839,7 +848,7 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>5</v>
@@ -857,7 +866,7 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>5</v>
@@ -875,16 +884,16 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -893,7 +902,7 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>5</v>
@@ -914,7 +923,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>5</v>
@@ -929,10 +938,10 @@
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>5</v>
@@ -947,13 +956,13 @@
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>6</v>
@@ -965,7 +974,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>5</v>
@@ -983,15 +992,15 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1001,15 +1010,15 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1019,15 +1028,15 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1037,15 +1046,15 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1055,15 +1064,15 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1073,15 +1082,15 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1091,15 +1100,15 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1112,7 +1121,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>5</v>
@@ -1127,15 +1136,15 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1145,128 +1154,144 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
+      <c r="A30" s="3"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>5</v>
+      <c r="C30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>5</v>
+      <c r="C31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>5</v>
+      <c r="C32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>5</v>
+      <c r="C33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>5</v>
+      <c r="C34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="B36" s="1"/>
+      <c r="C36" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{EAAA4B51-470A-41BD-BDE1-3D5ED58A0D54}">
       <formula1>$H$2:$H$4</formula1>
     </dataValidation>

--- a/backup/UI_001/XL/Page_1.xlsx
+++ b/backup/UI_001/XL/Page_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sketch_1\Git\UI_1\backup\UI_001\XL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9E4238-59B1-477C-BC29-C3DC40663F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9220AAA6-E70D-438B-84CA-CB5556BEE71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5EC3F4DB-EF81-46FB-9431-99FD1A794678}"/>
   </bookViews>
@@ -180,9 +180,6 @@
     <t>Quit</t>
   </si>
   <si>
-    <t>D:\Sketch_1\Git\UI_1\backup\UI_001\XL\Page_1.xlsx</t>
-  </si>
-  <si>
     <t>https://demo.guru99.com/test/delete_customer.php</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>AlertAccept</t>
+  </si>
+  <si>
+    <t>C:\Users\Send2\OneDrive\Desktop\STUB Data.txt</t>
   </si>
 </sst>
 </file>
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235CE346-5F7A-43F6-A669-24F42AEB3C42}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -941,7 +941,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>5</v>
@@ -998,7 +998,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>6</v>
@@ -1209,7 +1209,7 @@
         <v>8</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>5</v>
@@ -1230,7 +1230,7 @@
         <v>12</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>6</v>
@@ -1248,7 +1248,7 @@
         <v>5</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>6</v>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>5</v>

--- a/backup/UI_001/XL/Page_1.xlsx
+++ b/backup/UI_001/XL/Page_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sketch_1\Git\UI_1\backup\UI_001\XL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9220AAA6-E70D-438B-84CA-CB5556BEE71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA0377E-A2CA-4A4D-B4F4-78ACD8AF3AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5EC3F4DB-EF81-46FB-9431-99FD1A794678}"/>
   </bookViews>

--- a/backup/UI_001/XL/Page_1.xlsx
+++ b/backup/UI_001/XL/Page_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sketch_1\Git\UI_1\backup\UI_001\XL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA0377E-A2CA-4A4D-B4F4-78ACD8AF3AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6AD8BA-570E-492C-8E96-B4136840FB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5EC3F4DB-EF81-46FB-9431-99FD1A794678}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="56">
   <si>
     <t>S.No</t>
   </si>
@@ -192,10 +192,16 @@
     <t>SubmitCustomerForm</t>
   </si>
   <si>
-    <t>AlertAccept</t>
-  </si>
-  <si>
     <t>C:\Users\Send2\OneDrive\Desktop\STUB Data.txt</t>
+  </si>
+  <si>
+    <t>Accept</t>
+  </si>
+  <si>
+    <t>Dismiss</t>
+  </si>
+  <si>
+    <t>AlertFunction</t>
   </si>
 </sst>
 </file>
@@ -627,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235CE346-5F7A-43F6-A669-24F42AEB3C42}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -941,7 +947,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>5</v>
@@ -1260,10 +1266,10 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>5</v>
@@ -1273,20 +1279,108 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="3"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="3"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="3"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="3"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="3"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="3"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="13" t="s">
+      <c r="B43" s="1"/>
+      <c r="C43" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="3" t="s">
+      <c r="D43" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/backup/UI_001/XL/Page_1.xlsx
+++ b/backup/UI_001/XL/Page_1.xlsx
@@ -5,15 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sketch_1\Git\UI_1\backup\UI_001\XL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Send2\git\UI_1\backup\UI_001\XL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6AD8BA-570E-492C-8E96-B4136840FB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802508FF-616B-4249-89CE-E3A8E5F0D0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5EC3F4DB-EF81-46FB-9431-99FD1A794678}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{5EC3F4DB-EF81-46FB-9431-99FD1A794678}"/>
   </bookViews>
   <sheets>
-    <sheet name="Orange" sheetId="3" r:id="rId1"/>
+    <sheet name="Login_Validation" sheetId="3" r:id="rId1"/>
+    <sheet name="Handle_MultiTab" sheetId="7" r:id="rId2"/>
+    <sheet name="File_Uploads" sheetId="4" r:id="rId3"/>
+    <sheet name="Drag_Drop" sheetId="5" r:id="rId4"/>
+    <sheet name="Alert_Popup" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="57">
   <si>
     <t>S.No</t>
   </si>
@@ -202,6 +206,9 @@
   </si>
   <si>
     <t>AlertFunction</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/</t>
   </si>
 </sst>
 </file>
@@ -286,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -318,6 +325,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -633,15 +644,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235CE346-5F7A-43F6-A669-24F42AEB3C42}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F31"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.36328125" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
     <col min="3" max="3" width="20.54296875" customWidth="1"/>
     <col min="4" max="4" width="65.08984375" customWidth="1"/>
     <col min="5" max="5" width="19.453125" customWidth="1"/>
@@ -798,15 +809,15 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>6</v>
@@ -816,15 +827,15 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>35</v>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>6</v>
@@ -834,555 +845,27 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>24</v>
+      <c r="B11" s="1"/>
+      <c r="C11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
+      <c r="A12" s="3"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
-        <v>30</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
-        <v>32</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="3"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="3"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="3"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="3"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="3"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="3"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="3"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="3">
-        <v>34</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
@@ -1393,4 +876,1003 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFCED37-6B1B-4D13-B64C-9313FC1D2632}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="22.6328125" customWidth="1"/>
+    <col min="4" max="4" width="49.1796875" customWidth="1"/>
+    <col min="5" max="5" width="18.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{73A39464-2810-42F1-ADC8-084743967C23}">
+      <formula1>$H$2:$H$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{561A14AD-1A23-4C34-8CC4-468069944360}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F050A808-B130-4C28-8A28-ED9CBACB33DF}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" customWidth="1"/>
+    <col min="4" max="4" width="65.08984375" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{342B9C1F-5B0D-4516-9E7C-D7E6940D9057}">
+      <formula1>$H$2:$H$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9579DF9A-7114-4E0C-8F13-DF7FC313843C}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" customWidth="1"/>
+    <col min="4" max="4" width="65.08984375" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{A0E128A2-F94A-4AA4-B237-E05DFC1058D9}">
+      <formula1>$H$2:$H$3</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD18DD65-100D-4572-96FB-21EA347B85EC}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" customWidth="1"/>
+    <col min="4" max="4" width="65.08984375" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{98B1AF62-9B20-4AFE-B4B0-276A6EDA8298}">
+      <formula1>$H$2:$H$3</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>